--- a/doc/proposal/ガントチャート.xlsx
+++ b/doc/proposal/ガントチャート.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tokushimauniv-my.sharepoint.com/personal/c611901396_tokushima-u_ac_jp/Documents/Univercity/2年後期/ソフト実験/企画資料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3BACB9D-F4D4-4ECE-B6D7-34449776A8C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C3BACB9D-F4D4-4ECE-B6D7-34449776A8C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5734825A-4206-4FA1-A2C3-398E8945092A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5370AF23-48B6-4649-9B6B-87EA02F22FAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5370AF23-48B6-4649-9B6B-87EA02F22FAA}"/>
   </bookViews>
   <sheets>
     <sheet name="データ" sheetId="1" r:id="rId1"/>
     <sheet name="チャート" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">チャート!$D$2:$AH$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">チャート!$B$2:$CQ$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">データ!$B$2:$H$29</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">チャート!$B:$C,チャート!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -394,7 +396,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -591,10 +593,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -616,73 +618,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b val="0"/>
@@ -1006,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5AC3BA-BD35-4569-862C-2F03AF354FF3}">
   <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1061,13 +997,13 @@
         <v>44129</v>
       </c>
       <c r="H3" s="2">
-        <f>(G3-F3)</f>
+        <f t="shared" ref="H3:H17" si="0">(G3-F3)</f>
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B29" si="0">$B3+1</f>
+        <f t="shared" ref="B4:B29" si="1">$B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1086,7 +1022,7 @@
         <v>44142</v>
       </c>
       <c r="H4" s="2">
-        <f>(G4-F4)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -1111,13 +1047,13 @@
         <v>44152</v>
       </c>
       <c r="H5" s="2">
-        <f>(G5-F5)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1136,13 +1072,13 @@
         <v>44126</v>
       </c>
       <c r="H6" s="2">
-        <f>(G6-F6)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1161,7 +1097,7 @@
         <v>44135</v>
       </c>
       <c r="H7" s="2">
-        <f>(G7-F7)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -1186,13 +1122,13 @@
         <v>44146</v>
       </c>
       <c r="H8" s="2">
-        <f>(G8-F8)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1211,13 +1147,13 @@
         <v>44158</v>
       </c>
       <c r="H9" s="2">
-        <f>(G9-F9)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1236,13 +1172,13 @@
         <v>44165</v>
       </c>
       <c r="H10" s="2">
-        <f>(G10-F10)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1261,13 +1197,13 @@
         <v>44175</v>
       </c>
       <c r="H11" s="1">
-        <f>(G11-F11)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1286,13 +1222,13 @@
         <v>44119</v>
       </c>
       <c r="H12" s="1">
-        <f>(G12-F12)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1311,13 +1247,13 @@
         <v>44126</v>
       </c>
       <c r="H13" s="1">
-        <f>(G13-F13)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1336,13 +1272,13 @@
         <v>44135</v>
       </c>
       <c r="H14" s="1">
-        <f>(G14-F14)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1361,13 +1297,13 @@
         <v>44135</v>
       </c>
       <c r="H15" s="1">
-        <f>(G15-F15)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1386,13 +1322,13 @@
         <v>44149</v>
       </c>
       <c r="H16" s="1">
-        <f>(G16-F16)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1411,13 +1347,13 @@
         <v>44180</v>
       </c>
       <c r="H17" s="1">
-        <f>(G17-F17)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1436,13 +1372,13 @@
         <v>44123</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" ref="H18:H19" si="1">(G18-F18)</f>
+        <f t="shared" ref="H18:H19" si="2">(G18-F18)</f>
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1461,13 +1397,13 @@
         <v>44135</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1486,13 +1422,13 @@
         <v>44147</v>
       </c>
       <c r="H20" s="1">
-        <f>(G20-F20)</f>
+        <f t="shared" ref="H20:H29" si="3">(G20-F20)</f>
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1511,13 +1447,13 @@
         <v>44156</v>
       </c>
       <c r="H21" s="1">
-        <f>(G21-F21)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1536,13 +1472,13 @@
         <v>44165</v>
       </c>
       <c r="H22" s="1">
-        <f>(G22-F22)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1561,13 +1497,13 @@
         <v>44174</v>
       </c>
       <c r="H23" s="1">
-        <f>(G23-F23)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1586,13 +1522,13 @@
         <v>44161</v>
       </c>
       <c r="H24" s="1">
-        <f>(G24-F24)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1611,13 +1547,13 @@
         <v>44170</v>
       </c>
       <c r="H25" s="1">
-        <f>(G25-F25)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1636,13 +1572,13 @@
         <v>44177</v>
       </c>
       <c r="H26" s="1">
-        <f>(G26-F26)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1661,13 +1597,13 @@
         <v>44184</v>
       </c>
       <c r="H27" s="1">
-        <f>(G27-F27)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1686,13 +1622,13 @@
         <v>44184</v>
       </c>
       <c r="H28" s="1">
-        <f>(G28-F28)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1711,23 +1647,26 @@
         <v>44189</v>
       </c>
       <c r="H29" s="1">
-        <f>(G29-F29)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C743168-18CF-4D22-9967-5AC1644ED746}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:DW30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BD32" sqref="BD32"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -5821,8 +5760,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="91" fitToWidth="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
